--- a/Slow Reveal Recreations/hull-house-nationalities/segments.xlsx
+++ b/Slow Reveal Recreations/hull-house-nationalities/segments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvsu365-my.sharepoint.com/personal/s_cousilou_gvsu_edu/Documents/GVSU/Work/GA Position/Data Literacy/Visualization Recreations/Hull Houses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1218" documentId="11_F25DC773A252ABDACC10485159997CA65BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A034E007-3EB7-4B75-B43D-9D5D4B43C8F4}"/>
+  <xr:revisionPtr revIDLastSave="458" documentId="13_ncr:1_{278E54A3-B299-40B9-8BFE-17DE902D2607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F335C5-ACA4-4237-B979-F66100272701}"/>
   <bookViews>
     <workbookView xWindow="33735" yWindow="0" windowWidth="9810" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="11">
   <si>
     <t>x1</t>
   </si>
@@ -121,6 +121,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,11 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2161,17 +2165,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f>27.71+1.13</f>
+        <v>28.84</v>
+      </c>
+      <c r="B71">
+        <v>36.6</v>
+      </c>
+      <c r="C71">
+        <f>27.71+1.13</f>
+        <v>28.84</v>
+      </c>
+      <c r="D71">
+        <v>29.85</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
-        <f>27.71+1.13</f>
         <v>28.84</v>
       </c>
       <c r="B72">
-        <v>36.6</v>
+        <v>29.85</v>
       </c>
       <c r="C72">
-        <f>27.71+1.13</f>
-        <v>28.84</v>
+        <f>28.84+22.8</f>
+        <v>51.64</v>
       </c>
       <c r="D72">
         <v>29.85</v>
@@ -2188,15 +2216,15 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>28.84</v>
-      </c>
-      <c r="B73">
-        <v>29.85</v>
-      </c>
-      <c r="C73">
         <f>28.84+22.8</f>
         <v>51.64</v>
       </c>
+      <c r="B73">
+        <v>36.6</v>
+      </c>
+      <c r="C73">
+        <v>51.64</v>
+      </c>
       <c r="D73">
         <v>29.85</v>
       </c>
@@ -2212,17 +2240,17 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
+        <v>28.84</v>
+      </c>
+      <c r="B74">
+        <v>36.6</v>
+      </c>
+      <c r="C74">
         <f>28.84+22.8</f>
         <v>51.64</v>
       </c>
-      <c r="B74">
+      <c r="D74">
         <v>36.6</v>
-      </c>
-      <c r="C74">
-        <v>51.64</v>
-      </c>
-      <c r="D74">
-        <v>29.85</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -2239,17 +2267,19 @@
         <v>28.84</v>
       </c>
       <c r="B75">
-        <v>36.6</v>
+        <f>36.14-3.41</f>
+        <v>32.730000000000004</v>
       </c>
       <c r="C75">
-        <f>28.84+22.8</f>
-        <v>51.64</v>
+        <f>28.84+4.06</f>
+        <v>32.9</v>
       </c>
       <c r="D75">
-        <v>36.6</v>
+        <f>36.14-3.41</f>
+        <v>32.730000000000004</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -2260,7 +2290,8 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>28.84</v>
+        <f>28.84+4.06</f>
+        <v>32.9</v>
       </c>
       <c r="B76">
         <f>36.14-3.41</f>
@@ -2271,8 +2302,7 @@
         <v>32.9</v>
       </c>
       <c r="D76">
-        <f>36.14-3.41</f>
-        <v>32.730000000000004</v>
+        <v>29.85</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -2290,15 +2320,14 @@
         <v>32.9</v>
       </c>
       <c r="B77">
-        <f>36.14-3.41</f>
-        <v>32.730000000000004</v>
+        <v>32.260000000000005</v>
       </c>
       <c r="C77">
-        <f>28.84+4.06</f>
-        <v>32.9</v>
+        <f>A77+2.68</f>
+        <v>35.58</v>
       </c>
       <c r="D77">
-        <v>29.85</v>
+        <v>32.260000000000005</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -2312,18 +2341,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
-        <f>28.84+4.06</f>
-        <v>32.9</v>
+        <v>35.58</v>
       </c>
       <c r="B78">
         <v>32.260000000000005</v>
       </c>
       <c r="C78">
-        <f>A78+2.68</f>
         <v>35.58</v>
       </c>
       <c r="D78">
-        <v>32.260000000000005</v>
+        <v>29.85</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -2337,16 +2364,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>35.58</v>
+        <v>36.5</v>
       </c>
       <c r="B79">
-        <v>32.260000000000005</v>
+        <v>29.85</v>
       </c>
       <c r="C79">
-        <v>35.58</v>
+        <v>36.5</v>
       </c>
       <c r="D79">
-        <v>29.85</v>
+        <v>31.46</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
@@ -2363,10 +2390,10 @@
         <v>36.5</v>
       </c>
       <c r="B80">
-        <v>29.85</v>
+        <v>31.46</v>
       </c>
       <c r="C80">
-        <v>36.5</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="D80">
         <v>31.46</v>
@@ -2383,7 +2410,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>36.5</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="B81">
         <v>31.46</v>
@@ -2392,7 +2419,7 @@
         <v>37.840000000000003</v>
       </c>
       <c r="D81">
-        <v>31.46</v>
+        <v>29.85</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -2409,13 +2436,13 @@
         <v>37.840000000000003</v>
       </c>
       <c r="B82">
-        <v>31.46</v>
+        <v>31.05</v>
       </c>
       <c r="C82">
-        <v>37.840000000000003</v>
+        <v>40.11</v>
       </c>
       <c r="D82">
-        <v>29.85</v>
+        <v>31.05</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2429,16 +2456,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>37.840000000000003</v>
+        <v>29.75</v>
       </c>
       <c r="B83">
-        <v>31.05</v>
+        <v>36.6</v>
       </c>
       <c r="C83">
-        <v>40.11</v>
+        <v>29.75</v>
       </c>
       <c r="D83">
-        <v>31.05</v>
+        <v>35.75</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -2455,10 +2482,10 @@
         <v>29.75</v>
       </c>
       <c r="B84">
-        <v>36.6</v>
+        <v>35.75</v>
       </c>
       <c r="C84">
-        <v>29.75</v>
+        <v>31.04</v>
       </c>
       <c r="D84">
         <v>35.75</v>
@@ -2475,7 +2502,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>29.75</v>
+        <v>31.04</v>
       </c>
       <c r="B85">
         <v>35.75</v>
@@ -2484,7 +2511,7 @@
         <v>31.04</v>
       </c>
       <c r="D85">
-        <v>35.75</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -2501,10 +2528,10 @@
         <v>31.04</v>
       </c>
       <c r="B86">
-        <v>35.75</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="C86">
-        <v>31.04</v>
+        <v>32.29</v>
       </c>
       <c r="D86">
         <v>35.340000000000003</v>
@@ -2521,7 +2548,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>31.04</v>
+        <v>32.29</v>
       </c>
       <c r="B87">
         <v>35.340000000000003</v>
@@ -2530,7 +2557,7 @@
         <v>32.29</v>
       </c>
       <c r="D87">
-        <v>35.340000000000003</v>
+        <v>35.03</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -2547,10 +2574,10 @@
         <v>32.29</v>
       </c>
       <c r="B88">
-        <v>35.340000000000003</v>
+        <v>35.03</v>
       </c>
       <c r="C88">
-        <v>32.29</v>
+        <v>40.11</v>
       </c>
       <c r="D88">
         <v>35.03</v>
@@ -2567,16 +2594,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>32.29</v>
+        <v>40.11</v>
       </c>
       <c r="B89">
-        <v>35.03</v>
+        <v>36.6</v>
       </c>
       <c r="C89">
         <v>40.11</v>
       </c>
       <c r="D89">
-        <v>35.03</v>
+        <v>29.85</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -2593,13 +2620,13 @@
         <v>40.11</v>
       </c>
       <c r="B90">
-        <v>36.6</v>
+        <v>36.44</v>
       </c>
       <c r="C90">
-        <v>40.11</v>
+        <v>40.6</v>
       </c>
       <c r="D90">
-        <v>29.85</v>
+        <v>36.44</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -2616,13 +2643,13 @@
         <v>40.11</v>
       </c>
       <c r="B91">
-        <v>36.44</v>
+        <v>35.56</v>
       </c>
       <c r="C91">
         <v>40.6</v>
       </c>
       <c r="D91">
-        <v>36.44</v>
+        <v>35.56</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -2636,16 +2663,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>40.11</v>
+        <v>40.6</v>
       </c>
       <c r="B92">
-        <v>35.56</v>
+        <v>36.6</v>
       </c>
       <c r="C92">
         <v>40.6</v>
       </c>
       <c r="D92">
-        <v>35.56</v>
+        <v>35.04</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -2662,10 +2689,10 @@
         <v>40.6</v>
       </c>
       <c r="B93">
-        <v>36.6</v>
+        <v>35.04</v>
       </c>
       <c r="C93">
-        <v>40.6</v>
+        <v>44.68</v>
       </c>
       <c r="D93">
         <v>35.04</v>
@@ -2682,16 +2709,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="B94">
-        <v>35.04</v>
+        <v>36.6</v>
       </c>
       <c r="C94">
-        <v>44.68</v>
+        <v>41.2</v>
       </c>
       <c r="D94">
-        <v>35.04</v>
+        <v>33.58</v>
       </c>
       <c r="E94" t="s">
         <v>7</v>
@@ -2705,13 +2732,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>41.2</v>
+        <v>42.37</v>
       </c>
       <c r="B95">
         <v>36.6</v>
       </c>
       <c r="C95">
-        <v>41.2</v>
+        <v>42.37</v>
       </c>
       <c r="D95">
         <v>33.58</v>
@@ -2728,13 +2755,14 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>42.37</v>
+        <v>40.11</v>
       </c>
       <c r="B96">
-        <v>36.6</v>
+        <v>33.58</v>
       </c>
       <c r="C96">
-        <v>42.37</v>
+        <f>28.84+22.8</f>
+        <v>51.64</v>
       </c>
       <c r="D96">
         <v>33.58</v>
@@ -2754,14 +2782,14 @@
         <v>40.11</v>
       </c>
       <c r="B97">
-        <v>33.58</v>
+        <v>33.26</v>
       </c>
       <c r="C97">
         <f>28.84+22.8</f>
         <v>51.64</v>
       </c>
       <c r="D97">
-        <v>33.58</v>
+        <v>33.26</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -2775,17 +2803,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>40.11</v>
+        <v>44.07</v>
       </c>
       <c r="B98">
-        <v>33.26</v>
+        <v>35.04</v>
       </c>
       <c r="C98">
-        <f>28.84+22.8</f>
-        <v>51.64</v>
+        <v>44.07</v>
       </c>
       <c r="D98">
-        <v>33.26</v>
+        <v>36.6</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
@@ -2799,13 +2826,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>44.07</v>
+        <v>44.68</v>
       </c>
       <c r="B99">
         <v>35.04</v>
       </c>
       <c r="C99">
-        <v>44.07</v>
+        <v>44.68</v>
       </c>
       <c r="D99">
         <v>36.6</v>
@@ -2822,13 +2849,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>44.68</v>
+        <v>45.17</v>
       </c>
       <c r="B100">
-        <v>35.04</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="C100">
-        <v>44.68</v>
+        <v>45.17</v>
       </c>
       <c r="D100">
         <v>36.6</v>
@@ -2845,16 +2872,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>45.17</v>
+        <v>44.68</v>
       </c>
       <c r="B101">
         <v>35.619999999999997</v>
       </c>
       <c r="C101">
-        <v>45.17</v>
+        <v>46.38</v>
       </c>
       <c r="D101">
-        <v>36.6</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -2868,7 +2895,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>44.68</v>
+        <v>46.38</v>
       </c>
       <c r="B102">
         <v>35.619999999999997</v>
@@ -2877,7 +2904,7 @@
         <v>46.38</v>
       </c>
       <c r="D102">
-        <v>35.619999999999997</v>
+        <v>36.14</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
@@ -2894,13 +2921,13 @@
         <v>46.38</v>
       </c>
       <c r="B103">
-        <v>35.619999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="C103">
         <v>46.38</v>
       </c>
       <c r="D103">
-        <v>36.14</v>
+        <v>33.58</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -2914,13 +2941,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>46.38</v>
+        <v>43.51</v>
       </c>
       <c r="B104">
         <v>36.6</v>
       </c>
       <c r="C104">
-        <v>46.38</v>
+        <v>43.51</v>
       </c>
       <c r="D104">
         <v>33.58</v>
@@ -2937,16 +2964,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>43.51</v>
+        <v>46.38</v>
       </c>
       <c r="B105">
-        <v>36.6</v>
+        <v>35.25</v>
       </c>
       <c r="C105">
-        <v>43.51</v>
+        <v>46.91</v>
       </c>
       <c r="D105">
-        <v>33.58</v>
+        <v>35.25</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -2960,7 +2987,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>46.38</v>
+        <v>46.91</v>
       </c>
       <c r="B106">
         <v>35.25</v>
@@ -2969,7 +2996,7 @@
         <v>46.91</v>
       </c>
       <c r="D106">
-        <v>35.25</v>
+        <v>35.68</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -2986,10 +3013,10 @@
         <v>46.91</v>
       </c>
       <c r="B107">
-        <v>35.25</v>
+        <v>35.68</v>
       </c>
       <c r="C107">
-        <v>46.91</v>
+        <v>47.05</v>
       </c>
       <c r="D107">
         <v>35.68</v>
@@ -3006,16 +3033,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>46.91</v>
+        <v>47.05</v>
       </c>
       <c r="B108">
-        <v>35.68</v>
+        <v>36.6</v>
       </c>
       <c r="C108">
         <v>47.05</v>
       </c>
       <c r="D108">
-        <v>35.68</v>
+        <v>33.58</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -3032,13 +3059,13 @@
         <v>47.05</v>
       </c>
       <c r="B109">
-        <v>36.6</v>
+        <v>35.36</v>
       </c>
       <c r="C109">
-        <v>47.05</v>
+        <v>47.49</v>
       </c>
       <c r="D109">
-        <v>33.58</v>
+        <v>35.36</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
@@ -3052,7 +3079,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>47.05</v>
+        <v>47.49</v>
       </c>
       <c r="B110">
         <v>35.36</v>
@@ -3061,7 +3088,7 @@
         <v>47.49</v>
       </c>
       <c r="D110">
-        <v>35.36</v>
+        <v>36.6</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -3075,16 +3102,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>47.49</v>
+        <v>47.05</v>
       </c>
       <c r="B111">
-        <v>35.36</v>
+        <v>34.18</v>
       </c>
       <c r="C111">
         <v>47.49</v>
       </c>
       <c r="D111">
-        <v>36.6</v>
+        <v>34.18</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
@@ -3098,7 +3125,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>47.05</v>
+        <v>47.49</v>
       </c>
       <c r="B112">
         <v>34.18</v>
@@ -3107,7 +3134,7 @@
         <v>47.49</v>
       </c>
       <c r="D112">
-        <v>34.18</v>
+        <v>33.58</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
@@ -3121,16 +3148,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>47.49</v>
+        <v>47.59</v>
       </c>
       <c r="B113">
-        <v>34.18</v>
+        <v>36.6</v>
       </c>
       <c r="C113">
-        <v>47.49</v>
+        <v>47.59</v>
       </c>
       <c r="D113">
-        <v>33.58</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -3147,10 +3174,10 @@
         <v>47.59</v>
       </c>
       <c r="B114">
-        <v>36.6</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="C114">
-        <v>47.59</v>
+        <v>48.7</v>
       </c>
       <c r="D114">
         <v>35.659999999999997</v>
@@ -3167,16 +3194,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>47.59</v>
+        <v>48.72</v>
       </c>
       <c r="B115">
-        <v>35.659999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="C115">
-        <v>48.7</v>
+        <v>48.72</v>
       </c>
       <c r="D115">
-        <v>35.659999999999997</v>
+        <v>34.22</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -3190,13 +3217,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>48.72</v>
+        <v>48.12</v>
       </c>
       <c r="B116">
         <v>36.6</v>
       </c>
       <c r="C116">
-        <v>48.72</v>
+        <v>48.12</v>
       </c>
       <c r="D116">
         <v>34.22</v>
@@ -3216,10 +3243,10 @@
         <v>48.12</v>
       </c>
       <c r="B117">
-        <v>36.6</v>
+        <v>34.22</v>
       </c>
       <c r="C117">
-        <v>48.12</v>
+        <v>49.3</v>
       </c>
       <c r="D117">
         <v>34.22</v>
@@ -3236,16 +3263,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>48.12</v>
+        <v>49.3</v>
       </c>
       <c r="B118">
-        <v>34.22</v>
+        <v>33.58</v>
       </c>
       <c r="C118">
         <v>49.3</v>
       </c>
       <c r="D118">
-        <v>34.22</v>
+        <v>36.6</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -3259,16 +3286,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>49.3</v>
+        <v>48.72</v>
       </c>
       <c r="B119">
-        <v>33.58</v>
+        <v>35.06</v>
       </c>
       <c r="C119">
-        <v>49.3</v>
+        <v>48.98</v>
       </c>
       <c r="D119">
-        <v>36.6</v>
+        <v>35.06</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -3282,7 +3309,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>48.72</v>
+        <v>48.98</v>
       </c>
       <c r="B120">
         <v>35.06</v>
@@ -3291,7 +3318,7 @@
         <v>48.98</v>
       </c>
       <c r="D120">
-        <v>35.06</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -3308,10 +3335,10 @@
         <v>48.98</v>
       </c>
       <c r="B121">
-        <v>35.06</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="C121">
-        <v>48.98</v>
+        <v>49.3</v>
       </c>
       <c r="D121">
         <v>35.659999999999997</v>
@@ -3328,16 +3355,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>48.98</v>
+        <v>50.43</v>
       </c>
       <c r="B122">
-        <v>35.659999999999997</v>
+        <v>36.01</v>
       </c>
       <c r="C122">
-        <v>49.3</v>
+        <v>50.43</v>
       </c>
       <c r="D122">
-        <v>35.659999999999997</v>
+        <v>33.58</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -3351,16 +3378,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>50.43</v>
+        <v>50.21</v>
       </c>
       <c r="B123">
-        <v>36.01</v>
+        <v>34.22</v>
       </c>
       <c r="C123">
-        <v>50.43</v>
+        <v>51.64</v>
       </c>
       <c r="D123">
-        <v>33.58</v>
+        <v>34.22</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -3377,13 +3404,13 @@
         <v>50.21</v>
       </c>
       <c r="B124">
-        <v>34.24</v>
+        <v>34.22</v>
       </c>
       <c r="C124">
-        <v>51.64</v>
+        <v>50.21</v>
       </c>
       <c r="D124">
-        <v>34.24</v>
+        <v>33.58</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -3397,16 +3424,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>50.21</v>
+        <v>50.43</v>
       </c>
       <c r="B125">
-        <v>34.24</v>
+        <v>36.01</v>
       </c>
       <c r="C125">
-        <v>50.21</v>
+        <v>51.64</v>
       </c>
       <c r="D125">
-        <v>33.58</v>
+        <v>36.01</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -3420,16 +3447,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>50.43</v>
+        <v>50.69</v>
       </c>
       <c r="B126">
         <v>36.01</v>
       </c>
       <c r="C126">
-        <v>51.64</v>
+        <v>50.69</v>
       </c>
       <c r="D126">
-        <v>36.01</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -3446,10 +3473,10 @@
         <v>50.69</v>
       </c>
       <c r="B127">
-        <v>36.01</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="C127">
-        <v>50.69</v>
+        <v>51.64</v>
       </c>
       <c r="D127">
         <v>34.840000000000003</v>
@@ -3466,16 +3493,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>50.69</v>
+        <v>50.43</v>
       </c>
       <c r="B128">
-        <v>34.840000000000003</v>
+        <v>36.01</v>
       </c>
       <c r="C128">
         <v>51.64</v>
       </c>
       <c r="D128">
-        <v>34.840000000000003</v>
+        <v>36.01</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -3489,16 +3516,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>50.43</v>
+        <v>50.69</v>
       </c>
       <c r="B129">
-        <v>36.01</v>
+        <v>35.4</v>
       </c>
       <c r="C129">
         <v>51.64</v>
       </c>
       <c r="D129">
-        <v>36.01</v>
+        <v>35.4</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3512,16 +3539,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>50.69</v>
+        <v>40.6</v>
       </c>
       <c r="B130">
-        <v>35.4</v>
+        <v>32.97</v>
       </c>
       <c r="C130">
-        <v>51.64</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="D130">
-        <v>35.4</v>
+        <v>32.97</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -3535,16 +3562,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>40.6</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="B131">
-        <v>32.97</v>
+        <v>33.26</v>
       </c>
       <c r="C131">
         <v>40.619999999999997</v>
       </c>
       <c r="D131">
-        <v>32.97</v>
+        <v>29.85</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
@@ -3561,13 +3588,13 @@
         <v>40.619999999999997</v>
       </c>
       <c r="B132">
-        <v>33.26</v>
+        <v>31.4</v>
       </c>
       <c r="C132">
-        <v>40.619999999999997</v>
+        <v>41.22</v>
       </c>
       <c r="D132">
-        <v>29.85</v>
+        <v>31.4</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -3581,16 +3608,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>40.619999999999997</v>
+        <v>41.22</v>
       </c>
       <c r="B133">
-        <v>31.4</v>
+        <v>33.26</v>
       </c>
       <c r="C133">
         <v>41.22</v>
       </c>
       <c r="D133">
-        <v>31.4</v>
+        <v>29.85</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3604,16 +3631,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>41.22</v>
+        <v>40.619999999999997</v>
       </c>
       <c r="B134">
-        <v>33.26</v>
+        <v>32.33</v>
       </c>
       <c r="C134">
-        <v>41.22</v>
+        <v>41.12</v>
       </c>
       <c r="D134">
-        <v>29.85</v>
+        <v>32.33</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -3627,7 +3654,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>40.619999999999997</v>
+        <v>41.12</v>
       </c>
       <c r="B135">
         <v>32.33</v>
@@ -3636,7 +3663,7 @@
         <v>41.12</v>
       </c>
       <c r="D135">
-        <v>32.33</v>
+        <v>33.26</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -3650,16 +3677,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>41.12</v>
+        <v>41.22</v>
       </c>
       <c r="B136">
-        <v>32.33</v>
+        <v>32.29</v>
       </c>
       <c r="C136">
-        <v>41.12</v>
+        <v>41.79</v>
       </c>
       <c r="D136">
-        <v>33.26</v>
+        <v>32.29</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -3676,13 +3703,13 @@
         <v>41.22</v>
       </c>
       <c r="B137">
-        <v>32.29</v>
+        <v>31.68</v>
       </c>
       <c r="C137">
         <v>41.79</v>
       </c>
       <c r="D137">
-        <v>32.29</v>
+        <v>31.68</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -3696,16 +3723,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>41.22</v>
+        <v>41.79</v>
       </c>
       <c r="B138">
-        <v>31.68</v>
+        <v>33.26</v>
       </c>
       <c r="C138">
         <v>41.79</v>
       </c>
       <c r="D138">
-        <v>31.68</v>
+        <v>29.85</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -3722,13 +3749,13 @@
         <v>41.79</v>
       </c>
       <c r="B139">
-        <v>33.26</v>
+        <v>31.4</v>
       </c>
       <c r="C139">
-        <v>41.79</v>
+        <v>42.35</v>
       </c>
       <c r="D139">
-        <v>29.85</v>
+        <v>31.4</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -3742,16 +3769,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>41.79</v>
+        <v>42.35</v>
       </c>
       <c r="B140">
-        <v>31.4</v>
+        <v>33.26</v>
       </c>
       <c r="C140">
         <v>42.35</v>
       </c>
       <c r="D140">
-        <v>31.4</v>
+        <v>29.85</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -3768,13 +3795,13 @@
         <v>42.35</v>
       </c>
       <c r="B141">
-        <v>33.26</v>
+        <v>32.19</v>
       </c>
       <c r="C141">
-        <v>42.35</v>
+        <v>42.45</v>
       </c>
       <c r="D141">
-        <v>29.85</v>
+        <v>32.19</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -3788,7 +3815,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>42.35</v>
+        <v>42.45</v>
       </c>
       <c r="B142">
         <v>32.19</v>
@@ -3797,7 +3824,7 @@
         <v>42.45</v>
       </c>
       <c r="D142">
-        <v>32.19</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -3814,10 +3841,10 @@
         <v>42.45</v>
       </c>
       <c r="B143">
-        <v>32.19</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="C143">
-        <v>42.45</v>
+        <v>42.92</v>
       </c>
       <c r="D143">
         <v>32.729999999999997</v>
@@ -3834,7 +3861,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>42.45</v>
+        <v>42.92</v>
       </c>
       <c r="B144">
         <v>32.729999999999997</v>
@@ -3843,7 +3870,7 @@
         <v>42.92</v>
       </c>
       <c r="D144">
-        <v>32.729999999999997</v>
+        <v>29.85</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -3860,13 +3887,13 @@
         <v>42.92</v>
       </c>
       <c r="B145">
-        <v>32.729999999999997</v>
+        <v>32.43</v>
       </c>
       <c r="C145">
-        <v>42.92</v>
+        <v>43.51</v>
       </c>
       <c r="D145">
-        <v>29.85</v>
+        <v>32.43</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -3880,16 +3907,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>42.92</v>
+        <v>43.51</v>
       </c>
       <c r="B146">
-        <v>32.43</v>
+        <v>33.26</v>
       </c>
       <c r="C146">
         <v>43.51</v>
       </c>
       <c r="D146">
-        <v>32.43</v>
+        <v>29.85</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -3903,13 +3930,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>43.51</v>
+        <v>44.68</v>
       </c>
       <c r="B147">
         <v>33.26</v>
       </c>
       <c r="C147">
-        <v>43.51</v>
+        <v>44.68</v>
       </c>
       <c r="D147">
         <v>29.85</v>
@@ -3929,13 +3956,13 @@
         <v>44.68</v>
       </c>
       <c r="B148">
-        <v>33.26</v>
+        <v>32.51</v>
       </c>
       <c r="C148">
-        <v>44.68</v>
+        <v>45.14</v>
       </c>
       <c r="D148">
-        <v>29.85</v>
+        <v>32.51</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -3952,13 +3979,13 @@
         <v>44.68</v>
       </c>
       <c r="B149">
-        <v>32.51</v>
+        <v>31.93</v>
       </c>
       <c r="C149">
         <v>45.14</v>
       </c>
       <c r="D149">
-        <v>32.51</v>
+        <v>31.93</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -3972,16 +3999,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>44.68</v>
+        <v>45.14</v>
       </c>
       <c r="B150">
-        <v>31.93</v>
+        <v>33.26</v>
       </c>
       <c r="C150">
         <v>45.14</v>
       </c>
       <c r="D150">
-        <v>31.93</v>
+        <v>29.85</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -3998,13 +4025,13 @@
         <v>45.14</v>
       </c>
       <c r="B151">
-        <v>33.26</v>
+        <v>31.71</v>
       </c>
       <c r="C151">
-        <v>45.14</v>
+        <v>45.87</v>
       </c>
       <c r="D151">
-        <v>29.85</v>
+        <v>31.71</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -4018,16 +4045,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>45.14</v>
+        <v>45.87</v>
       </c>
       <c r="B152">
-        <v>31.71</v>
+        <v>33.26</v>
       </c>
       <c r="C152">
         <v>45.87</v>
       </c>
       <c r="D152">
-        <v>31.71</v>
+        <v>29.85</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -4041,13 +4068,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>45.87</v>
+        <v>47.05</v>
       </c>
       <c r="B153">
         <v>33.26</v>
       </c>
       <c r="C153">
-        <v>45.87</v>
+        <v>47.05</v>
       </c>
       <c r="D153">
         <v>29.85</v>
@@ -4064,13 +4091,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>47.05</v>
+        <v>48.16</v>
       </c>
       <c r="B154">
         <v>33.26</v>
       </c>
       <c r="C154">
-        <v>47.05</v>
+        <v>48.16</v>
       </c>
       <c r="D154">
         <v>29.85</v>
@@ -4087,13 +4114,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>48.16</v>
+        <v>49.31</v>
       </c>
       <c r="B155">
         <v>33.26</v>
       </c>
       <c r="C155">
-        <v>48.16</v>
+        <v>49.31</v>
       </c>
       <c r="D155">
         <v>29.85</v>
@@ -4110,13 +4137,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>49.31</v>
+        <v>50.49</v>
       </c>
       <c r="B156">
         <v>33.26</v>
       </c>
       <c r="C156">
-        <v>49.31</v>
+        <v>50.49</v>
       </c>
       <c r="D156">
         <v>29.85</v>
@@ -4133,16 +4160,16 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>50.49</v>
+        <v>49.74</v>
       </c>
       <c r="B157">
         <v>33.26</v>
       </c>
       <c r="C157">
-        <v>50.49</v>
+        <v>49.74</v>
       </c>
       <c r="D157">
-        <v>29.85</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -4159,10 +4186,11 @@
         <v>49.74</v>
       </c>
       <c r="B158">
-        <v>33.26</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="C158">
-        <v>49.74</v>
+        <f>28.84+22.8</f>
+        <v>51.64</v>
       </c>
       <c r="D158">
         <v>32.549999999999997</v>
@@ -4179,17 +4207,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>49.74</v>
+        <v>46.63</v>
       </c>
       <c r="B159">
-        <v>32.549999999999997</v>
+        <v>29.85</v>
       </c>
       <c r="C159">
-        <f>28.84+22.8</f>
-        <v>51.64</v>
+        <v>46.63</v>
       </c>
       <c r="D159">
-        <v>32.549999999999997</v>
+        <v>32.03</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -4206,10 +4233,10 @@
         <v>46.63</v>
       </c>
       <c r="B160">
-        <v>29.85</v>
+        <v>32.03</v>
       </c>
       <c r="C160">
-        <v>46.63</v>
+        <v>47.57</v>
       </c>
       <c r="D160">
         <v>32.03</v>
@@ -4226,7 +4253,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>46.63</v>
+        <v>47.57</v>
       </c>
       <c r="B161">
         <v>32.03</v>
@@ -4235,7 +4262,7 @@
         <v>47.57</v>
       </c>
       <c r="D161">
-        <v>32.03</v>
+        <v>32.17</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -4252,10 +4279,10 @@
         <v>47.57</v>
       </c>
       <c r="B162">
-        <v>32.03</v>
+        <v>32.17</v>
       </c>
       <c r="C162">
-        <v>47.57</v>
+        <v>50.85</v>
       </c>
       <c r="D162">
         <v>32.17</v>
@@ -4272,7 +4299,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>47.57</v>
+        <v>50.85</v>
       </c>
       <c r="B163">
         <v>32.17</v>
@@ -4281,7 +4308,7 @@
         <v>50.85</v>
       </c>
       <c r="D163">
-        <v>32.17</v>
+        <v>32.35</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -4298,10 +4325,10 @@
         <v>50.85</v>
       </c>
       <c r="B164">
-        <v>32.17</v>
+        <v>32.35</v>
       </c>
       <c r="C164">
-        <v>50.85</v>
+        <v>51.51</v>
       </c>
       <c r="D164">
         <v>32.35</v>
@@ -4318,7 +4345,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>50.85</v>
+        <v>51.51</v>
       </c>
       <c r="B165">
         <v>32.35</v>
@@ -4327,7 +4354,7 @@
         <v>51.51</v>
       </c>
       <c r="D165">
-        <v>32.35</v>
+        <v>32.01</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -4344,10 +4371,10 @@
         <v>51.51</v>
       </c>
       <c r="B166">
-        <v>32.35</v>
+        <v>32.01</v>
       </c>
       <c r="C166">
-        <v>51.51</v>
+        <v>51.37</v>
       </c>
       <c r="D166">
         <v>32.01</v>
@@ -4364,7 +4391,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>51.51</v>
+        <v>51.37</v>
       </c>
       <c r="B167">
         <v>32.01</v>
@@ -4373,7 +4400,7 @@
         <v>51.37</v>
       </c>
       <c r="D167">
-        <v>32.01</v>
+        <v>30.92</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
@@ -4390,10 +4417,10 @@
         <v>51.37</v>
       </c>
       <c r="B168">
-        <v>32.01</v>
+        <v>30.92</v>
       </c>
       <c r="C168">
-        <v>51.37</v>
+        <v>51.51</v>
       </c>
       <c r="D168">
         <v>30.92</v>
@@ -4410,7 +4437,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>51.37</v>
+        <v>51.51</v>
       </c>
       <c r="B169">
         <v>30.92</v>
@@ -4419,7 +4446,7 @@
         <v>51.51</v>
       </c>
       <c r="D169">
-        <v>30.92</v>
+        <v>29.85</v>
       </c>
       <c r="E169" t="s">
         <v>7</v>
@@ -4433,31 +4460,4509 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>51.51</v>
+        <v>3.79</v>
       </c>
       <c r="B170">
-        <v>30.92</v>
+        <v>28</v>
       </c>
       <c r="C170">
-        <v>51.51</v>
+        <v>3.79</v>
       </c>
       <c r="D170">
-        <v>29.85</v>
+        <v>25.13</v>
       </c>
       <c r="E170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>27.79</v>
+      </c>
+      <c r="B171">
+        <v>28</v>
+      </c>
+      <c r="C171">
+        <v>27.79</v>
+      </c>
+      <c r="D171">
+        <v>25.13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>3.79</v>
+      </c>
+      <c r="B172">
+        <v>28</v>
+      </c>
+      <c r="C172">
+        <v>27.79</v>
+      </c>
+      <c r="D172">
+        <v>28</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172">
+        <v>5</v>
+      </c>
+      <c r="G172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>3.79</v>
+      </c>
+      <c r="B173">
+        <v>25.13</v>
+      </c>
+      <c r="C173">
+        <v>27.79</v>
+      </c>
+      <c r="D173">
+        <v>25.13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173">
+        <v>5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>4.58</v>
+      </c>
+      <c r="B174">
+        <v>28</v>
+      </c>
+      <c r="C174">
+        <f>A174</f>
+        <v>4.58</v>
+      </c>
+      <c r="D174">
+        <v>25.13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174">
+        <v>5</v>
+      </c>
+      <c r="G174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>5.42</v>
+      </c>
+      <c r="B175">
+        <v>28</v>
+      </c>
+      <c r="C175">
+        <f>A175</f>
+        <v>5.42</v>
+      </c>
+      <c r="D175">
+        <v>25.13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175">
+        <v>5</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>6.61</v>
+      </c>
+      <c r="B176">
+        <v>28</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ref="C176:C199" si="7">A176</f>
+        <v>6.61</v>
+      </c>
+      <c r="D176">
+        <v>25.13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>7.29</v>
+      </c>
+      <c r="B177">
+        <v>28</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="7"/>
+        <v>7.29</v>
+      </c>
+      <c r="D177">
+        <v>25.13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>7.94</v>
+      </c>
+      <c r="B178">
+        <v>28</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="7"/>
+        <v>7.94</v>
+      </c>
+      <c r="D178">
+        <v>25.13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="B179">
+        <v>28</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="7"/>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D179">
+        <v>25.13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <v>5</v>
+      </c>
+      <c r="G179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>9.16</v>
+      </c>
+      <c r="B180">
+        <v>28</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="7"/>
+        <v>9.16</v>
+      </c>
+      <c r="D180">
+        <v>25.13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180">
+        <v>5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>9.74</v>
+      </c>
+      <c r="B181">
+        <v>28</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="7"/>
+        <v>9.74</v>
+      </c>
+      <c r="D181">
+        <v>25.13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181">
+        <v>5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>10.3</v>
+      </c>
+      <c r="B182">
+        <v>28</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="7"/>
+        <v>10.3</v>
+      </c>
+      <c r="D182">
+        <v>25.13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>10.77</v>
+      </c>
+      <c r="B183">
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="7"/>
+        <v>10.77</v>
+      </c>
+      <c r="D183">
+        <v>25.13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183">
+        <v>5</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>11.07</v>
+      </c>
+      <c r="B184">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="7"/>
+        <v>11.07</v>
+      </c>
+      <c r="D184">
+        <v>25.41</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184">
+        <v>5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>11.59</v>
+      </c>
+      <c r="B185">
+        <v>28</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="7"/>
+        <v>11.59</v>
+      </c>
+      <c r="D185">
+        <v>25.13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>12.09</v>
+      </c>
+      <c r="B186">
+        <v>28</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="7"/>
+        <v>12.09</v>
+      </c>
+      <c r="D186">
+        <v>25.13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>12.24</v>
+      </c>
+      <c r="B187">
+        <v>28</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="7"/>
+        <v>12.24</v>
+      </c>
+      <c r="D187">
+        <v>27.07</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>12.73</v>
+      </c>
+      <c r="B188">
+        <v>28</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="7"/>
+        <v>12.73</v>
+      </c>
+      <c r="D188">
+        <v>25.13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="G188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>13.39</v>
+      </c>
+      <c r="B189">
+        <v>28</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="7"/>
+        <v>13.39</v>
+      </c>
+      <c r="D189">
+        <v>25.13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>13.9</v>
+      </c>
+      <c r="B190">
+        <v>28</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="7"/>
+        <v>13.9</v>
+      </c>
+      <c r="D190">
+        <v>25.13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>14.08</v>
+      </c>
+      <c r="B191">
+        <v>28</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="7"/>
+        <v>14.08</v>
+      </c>
+      <c r="D191">
+        <v>26.74</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+      <c r="G191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>14.08</v>
+      </c>
+      <c r="B192">
+        <v>26.74</v>
+      </c>
+      <c r="C192">
+        <v>14.64</v>
+      </c>
+      <c r="D192">
+        <v>26.74</v>
+      </c>
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>14.64</v>
+      </c>
+      <c r="B193">
+        <v>28</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="7"/>
+        <v>14.64</v>
+      </c>
+      <c r="D193">
+        <v>25.13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="G193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>14.8</v>
+      </c>
+      <c r="B194">
+        <v>28</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="7"/>
+        <v>14.8</v>
+      </c>
+      <c r="D194">
+        <v>25.13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+      <c r="G194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>14.8</v>
+      </c>
+      <c r="B195">
+        <v>26.74</v>
+      </c>
+      <c r="C195">
+        <v>15.31</v>
+      </c>
+      <c r="D195">
+        <v>26.74</v>
+      </c>
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+      <c r="G195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>15.31</v>
+      </c>
+      <c r="B196">
+        <v>28</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="7"/>
+        <v>15.31</v>
+      </c>
+      <c r="D196">
+        <v>25.13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>15.94</v>
+      </c>
+      <c r="B197">
+        <v>28</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="7"/>
+        <v>15.94</v>
+      </c>
+      <c r="D197">
+        <v>25.13</v>
+      </c>
+      <c r="E197" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197">
+        <v>5</v>
+      </c>
+      <c r="G197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="B198">
+        <v>28</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="7"/>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="D198">
+        <v>25.94</v>
+      </c>
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+      <c r="G198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>16.97</v>
+      </c>
+      <c r="B199">
+        <v>28</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="7"/>
+        <v>16.97</v>
+      </c>
+      <c r="D199">
+        <v>25.13</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199">
+        <v>5</v>
+      </c>
+      <c r="G199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>15.94</v>
+      </c>
+      <c r="B200">
+        <v>28</v>
+      </c>
+      <c r="C200">
+        <v>15.94</v>
+      </c>
+      <c r="D200">
+        <v>25.13</v>
+      </c>
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <v>5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="B201">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="D201">
+        <v>25.94</v>
+      </c>
+      <c r="E201" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>15.94</v>
+      </c>
+      <c r="B202">
+        <v>25.94</v>
+      </c>
+      <c r="C202">
+        <v>16.97</v>
+      </c>
+      <c r="D202">
+        <v>25.94</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202">
+        <v>5</v>
+      </c>
+      <c r="G202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>18.86</v>
+      </c>
+      <c r="B203">
+        <v>28</v>
+      </c>
+      <c r="C203">
+        <f t="shared" ref="C203:C204" si="8">A203</f>
+        <v>18.86</v>
+      </c>
+      <c r="D203">
+        <v>25.13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
+      <c r="G203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="B204">
+        <v>28</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="8"/>
+        <v>19.649999999999999</v>
+      </c>
+      <c r="D204">
+        <v>25.13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204">
+        <v>5</v>
+      </c>
+      <c r="G204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="B205">
+        <v>28</v>
+      </c>
+      <c r="C205">
+        <f t="shared" ref="C205:C218" si="9">A205</f>
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D205">
+        <v>25.13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205">
+        <v>5</v>
+      </c>
+      <c r="G205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>18.86</v>
+      </c>
+      <c r="B206">
+        <v>26.03</v>
+      </c>
+      <c r="C206">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="D206">
+        <v>26.03</v>
+      </c>
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206">
+        <v>5</v>
+      </c>
+      <c r="G206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>20.91</v>
+      </c>
+      <c r="B207">
+        <v>28</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="9"/>
+        <v>20.91</v>
+      </c>
+      <c r="D207">
+        <v>25.13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207">
+        <v>5</v>
+      </c>
+      <c r="G207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>21.14</v>
+      </c>
+      <c r="B208">
+        <v>28</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="9"/>
+        <v>21.14</v>
+      </c>
+      <c r="D208">
+        <v>25.13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208">
+        <v>5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>21.42</v>
+      </c>
+      <c r="B209">
+        <v>28</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="9"/>
+        <v>21.42</v>
+      </c>
+      <c r="D209">
+        <v>25.13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209">
+        <v>5</v>
+      </c>
+      <c r="G209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>21.97</v>
+      </c>
+      <c r="B210">
+        <v>28</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="9"/>
+        <v>21.97</v>
+      </c>
+      <c r="D210">
+        <v>25.13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+      <c r="G210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>22.5</v>
+      </c>
+      <c r="B211">
+        <v>28</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="9"/>
+        <v>22.5</v>
+      </c>
+      <c r="D211">
+        <v>25.13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>20.91</v>
+      </c>
+      <c r="B212">
+        <v>26.68</v>
+      </c>
+      <c r="C212">
+        <v>22.5</v>
+      </c>
+      <c r="D212">
+        <v>26.68</v>
+      </c>
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+      <c r="G212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>23.14</v>
+      </c>
+      <c r="B213">
+        <v>28</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="9"/>
+        <v>23.14</v>
+      </c>
+      <c r="D213">
+        <v>25.13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>7</v>
+      </c>
+      <c r="F213">
+        <v>5</v>
+      </c>
+      <c r="G213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>22.5</v>
+      </c>
+      <c r="B214">
+        <v>25.57</v>
+      </c>
+      <c r="C214">
+        <v>23.14</v>
+      </c>
+      <c r="D214">
+        <v>25.57</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+      <c r="G214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>23.83</v>
+      </c>
+      <c r="B215">
+        <v>28</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="9"/>
+        <v>23.83</v>
+      </c>
+      <c r="D215">
+        <v>25.13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215">
+        <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>23.14</v>
+      </c>
+      <c r="B216">
+        <v>25.99</v>
+      </c>
+      <c r="C216">
+        <v>23.83</v>
+      </c>
+      <c r="D216">
+        <v>25.99</v>
+      </c>
+      <c r="E216" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>23.14</v>
+      </c>
+      <c r="B217">
+        <v>25.77</v>
+      </c>
+      <c r="C217">
+        <v>23.83</v>
+      </c>
+      <c r="D217">
+        <v>25.77</v>
+      </c>
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217">
+        <v>5</v>
+      </c>
+      <c r="G217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>24.53</v>
+      </c>
+      <c r="B218">
+        <v>28</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="9"/>
+        <v>24.53</v>
+      </c>
+      <c r="D218">
+        <v>25.13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>5</v>
+      </c>
+      <c r="G218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>25.28</v>
+      </c>
+      <c r="B219">
+        <v>28</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ref="C219:C231" si="10">A219</f>
+        <v>25.28</v>
+      </c>
+      <c r="D219">
+        <v>25.13</v>
+      </c>
+      <c r="E219" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219">
+        <v>5</v>
+      </c>
+      <c r="G219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>25.4</v>
+      </c>
+      <c r="B220">
+        <v>26.22</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="10"/>
+        <v>25.4</v>
+      </c>
+      <c r="D220">
+        <v>25.13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>5</v>
+      </c>
+      <c r="G220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>25.4</v>
+      </c>
+      <c r="B221">
+        <v>26.22</v>
+      </c>
+      <c r="C221">
+        <v>25.98</v>
+      </c>
+      <c r="D221">
+        <v>26.22</v>
+      </c>
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>25.98</v>
+      </c>
+      <c r="B222">
+        <v>28</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="10"/>
+        <v>25.98</v>
+      </c>
+      <c r="D222">
+        <v>25.13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222">
+        <v>5</v>
+      </c>
+      <c r="G222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>25.28</v>
+      </c>
+      <c r="B223">
+        <v>26.44</v>
+      </c>
+      <c r="C223">
+        <v>25.98</v>
+      </c>
+      <c r="D223">
+        <v>26.44</v>
+      </c>
+      <c r="E223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223">
+        <v>5</v>
+      </c>
+      <c r="G223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>26.16</v>
+      </c>
+      <c r="B224">
+        <v>28</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="10"/>
+        <v>26.16</v>
+      </c>
+      <c r="D224">
+        <v>26.23</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224">
+        <v>5</v>
+      </c>
+      <c r="G224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>26.16</v>
+      </c>
+      <c r="B225">
+        <v>26.23</v>
+      </c>
+      <c r="C225">
+        <v>26.72</v>
+      </c>
+      <c r="D225">
+        <v>26.23</v>
+      </c>
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225">
+        <v>5</v>
+      </c>
+      <c r="G225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>26.72</v>
+      </c>
+      <c r="B226">
+        <v>28</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="10"/>
+        <v>26.72</v>
+      </c>
+      <c r="D226">
+        <v>25.13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <v>5</v>
+      </c>
+      <c r="G226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>26.72</v>
+      </c>
+      <c r="B227">
+        <v>26.82</v>
+      </c>
+      <c r="C227">
+        <v>27.13</v>
+      </c>
+      <c r="D227">
+        <v>26.82</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227">
+        <v>5</v>
+      </c>
+      <c r="G227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>27.13</v>
+      </c>
+      <c r="B228">
+        <v>28</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="10"/>
+        <v>27.13</v>
+      </c>
+      <c r="D228">
+        <v>26.82</v>
+      </c>
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228">
+        <v>5</v>
+      </c>
+      <c r="G228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>26.83</v>
+      </c>
+      <c r="B229">
+        <v>26.42</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="10"/>
+        <v>26.83</v>
+      </c>
+      <c r="D229">
+        <v>25.13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229">
+        <v>5</v>
+      </c>
+      <c r="G229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>26.83</v>
+      </c>
+      <c r="B230">
+        <v>26.42</v>
+      </c>
+      <c r="C230">
+        <v>27.79</v>
+      </c>
+      <c r="D230">
+        <v>26.42</v>
+      </c>
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230">
+        <v>5</v>
+      </c>
+      <c r="G230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>27.28</v>
+      </c>
+      <c r="B231">
+        <v>28</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="10"/>
+        <v>27.28</v>
+      </c>
+      <c r="D231">
+        <v>26.42</v>
+      </c>
+      <c r="E231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+      <c r="G231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>12.24</v>
+      </c>
+      <c r="B232">
+        <v>27.08</v>
+      </c>
+      <c r="C232">
+        <v>12.73</v>
+      </c>
+      <c r="D232">
+        <f>B232</f>
+        <v>27.08</v>
+      </c>
+      <c r="E232" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232">
+        <v>5</v>
+      </c>
+      <c r="G232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>11.07</v>
+      </c>
+      <c r="B233">
+        <v>25.41</v>
+      </c>
+      <c r="C233">
+        <v>12.09</v>
+      </c>
+      <c r="D233">
+        <f t="shared" ref="D233:D244" si="11">B233</f>
+        <v>25.41</v>
+      </c>
+      <c r="E233" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233">
+        <v>5</v>
+      </c>
+      <c r="G233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>9.74</v>
+      </c>
+      <c r="B234">
+        <v>25.54</v>
+      </c>
+      <c r="C234">
+        <v>10.3</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="11"/>
+        <v>25.54</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234">
+        <v>5</v>
+      </c>
+      <c r="G234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>9.16</v>
+      </c>
+      <c r="B235">
+        <v>26.35</v>
+      </c>
+      <c r="C235">
+        <v>9.74</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="11"/>
+        <v>26.35</v>
+      </c>
+      <c r="E235" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235">
+        <v>5</v>
+      </c>
+      <c r="G235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>7.29</v>
+      </c>
+      <c r="B236">
+        <v>25.73</v>
+      </c>
+      <c r="C236">
+        <v>9.16</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="11"/>
+        <v>25.73</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236">
+        <v>5</v>
+      </c>
+      <c r="G236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="B237">
+        <v>26.8</v>
+      </c>
+      <c r="C237">
+        <v>9.16</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="11"/>
+        <v>26.8</v>
+      </c>
+      <c r="E237" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237">
+        <v>5</v>
+      </c>
+      <c r="G237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>7.29</v>
+      </c>
+      <c r="B238">
+        <v>26.33</v>
+      </c>
+      <c r="C238">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="11"/>
+        <v>26.33</v>
+      </c>
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238">
+        <v>5</v>
+      </c>
+      <c r="G238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>5.42</v>
+      </c>
+      <c r="B239">
+        <v>26.16</v>
+      </c>
+      <c r="C239">
+        <v>6.61</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="11"/>
+        <v>26.16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239">
+        <v>5</v>
+      </c>
+      <c r="G239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>5.42</v>
+      </c>
+      <c r="B240">
+        <v>26.34</v>
+      </c>
+      <c r="C240">
+        <v>6.61</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="11"/>
+        <v>26.34</v>
+      </c>
+      <c r="E240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240">
+        <v>5</v>
+      </c>
+      <c r="G240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>3.79</v>
+      </c>
+      <c r="B241">
+        <v>26.47</v>
+      </c>
+      <c r="C241">
+        <v>5.42</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="11"/>
+        <v>26.47</v>
+      </c>
+      <c r="E241" t="s">
+        <v>7</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+      <c r="G241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>3.79</v>
+      </c>
+      <c r="B242">
+        <v>26.29</v>
+      </c>
+      <c r="C242">
+        <v>4.95</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="11"/>
+        <v>26.29</v>
+      </c>
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242">
+        <v>5</v>
+      </c>
+      <c r="G242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>3.79</v>
+      </c>
+      <c r="B243">
+        <v>25.83</v>
+      </c>
+      <c r="C243">
+        <v>4.95</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="11"/>
+        <v>25.83</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243">
+        <v>5</v>
+      </c>
+      <c r="G243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>3.79</v>
+      </c>
+      <c r="B244">
+        <v>25.67</v>
+      </c>
+      <c r="C244">
+        <v>5.18</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="11"/>
+        <v>25.67</v>
+      </c>
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>5</v>
+      </c>
+      <c r="G244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>4.95</v>
+      </c>
+      <c r="B245">
+        <v>26.29</v>
+      </c>
+      <c r="C245">
+        <v>4.95</v>
+      </c>
+      <c r="D245">
+        <v>25.83</v>
+      </c>
+      <c r="E245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245">
+        <v>5</v>
+      </c>
+      <c r="G245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>5.18</v>
+      </c>
+      <c r="B246">
+        <v>25.67</v>
+      </c>
+      <c r="C246">
+        <v>5.18</v>
+      </c>
+      <c r="D246">
+        <v>25.13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+      <c r="G246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>3.79</v>
+      </c>
+      <c r="B247">
+        <v>24.65</v>
+      </c>
+      <c r="C247">
+        <v>3.79</v>
+      </c>
+      <c r="D247">
+        <v>21.71</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>3.79</v>
+      </c>
+      <c r="B248">
+        <v>21.71</v>
+      </c>
+      <c r="C248">
+        <v>7.02</v>
+      </c>
+      <c r="D248">
+        <v>21.71</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>7.02</v>
+      </c>
+      <c r="B249">
+        <v>21.71</v>
+      </c>
+      <c r="C249">
+        <v>7.02</v>
+      </c>
+      <c r="D249">
+        <v>21.93</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>7.02</v>
+      </c>
+      <c r="B250">
+        <v>21.93</v>
+      </c>
+      <c r="C250">
+        <v>27.79</v>
+      </c>
+      <c r="D250">
+        <v>21.93</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>27.79</v>
+      </c>
+      <c r="B251">
+        <v>24.65</v>
+      </c>
+      <c r="C251">
+        <v>27.79</v>
+      </c>
+      <c r="D251">
+        <v>21.93</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>3.79</v>
+      </c>
+      <c r="B252">
+        <v>24.65</v>
+      </c>
+      <c r="C252">
+        <v>27.79</v>
+      </c>
+      <c r="D252">
+        <v>24.65</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>3.79</v>
+      </c>
+      <c r="B253">
+        <v>24.14</v>
+      </c>
+      <c r="C253">
+        <v>7.02</v>
+      </c>
+      <c r="D253">
+        <v>24.14</v>
+      </c>
+      <c r="E253" t="s">
+        <v>7</v>
+      </c>
+      <c r="F253">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>6.02</v>
+      </c>
+      <c r="B254">
+        <v>24.65</v>
+      </c>
+      <c r="C254">
+        <v>6.02</v>
+      </c>
+      <c r="D254">
+        <v>24.14</v>
+      </c>
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>3.79</v>
+      </c>
+      <c r="B255">
+        <v>24.04</v>
+      </c>
+      <c r="C255">
+        <v>5.34</v>
+      </c>
+      <c r="D255">
+        <v>24.04</v>
+      </c>
+      <c r="E255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>5.34</v>
+      </c>
+      <c r="B256">
+        <v>24.04</v>
+      </c>
+      <c r="C256">
+        <v>5.34</v>
+      </c>
+      <c r="D256">
+        <v>23.57</v>
+      </c>
+      <c r="E256" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>3.79</v>
+      </c>
+      <c r="B257">
+        <v>23.57</v>
+      </c>
+      <c r="C257">
+        <v>7.02</v>
+      </c>
+      <c r="D257">
+        <v>23.57</v>
+      </c>
+      <c r="E257" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>3.79</v>
+      </c>
+      <c r="B258">
+        <v>22.9</v>
+      </c>
+      <c r="C258">
+        <v>7.02</v>
+      </c>
+      <c r="D258">
+        <v>22.9</v>
+      </c>
+      <c r="E258" t="s">
+        <v>7</v>
+      </c>
+      <c r="F258">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>3.79</v>
+      </c>
+      <c r="B259">
+        <v>22.23</v>
+      </c>
+      <c r="C259">
+        <v>7.02</v>
+      </c>
+      <c r="D259">
+        <v>22.23</v>
+      </c>
+      <c r="E259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>6.81</v>
+      </c>
+      <c r="B260">
+        <v>24.65</v>
+      </c>
+      <c r="C260">
+        <v>6.81</v>
+      </c>
+      <c r="D260">
+        <v>21.71</v>
+      </c>
+      <c r="E260" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>8.65</v>
+      </c>
+      <c r="B261">
+        <v>24.65</v>
+      </c>
+      <c r="C261">
+        <v>8.65</v>
+      </c>
+      <c r="D261">
+        <v>21.93</v>
+      </c>
+      <c r="E261" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>10.29</v>
+      </c>
+      <c r="B262">
+        <v>24.65</v>
+      </c>
+      <c r="C262">
+        <f>A262</f>
+        <v>10.29</v>
+      </c>
+      <c r="D262">
+        <v>21.93</v>
+      </c>
+      <c r="E262" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>11.11</v>
+      </c>
+      <c r="B263">
+        <v>24.65</v>
+      </c>
+      <c r="C263">
+        <f t="shared" ref="C263:C273" si="12">A263</f>
+        <v>11.11</v>
+      </c>
+      <c r="D263">
+        <v>21.93</v>
+      </c>
+      <c r="E263" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>11.84</v>
+      </c>
+      <c r="B264">
+        <v>24.65</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="12"/>
+        <v>11.84</v>
+      </c>
+      <c r="D264">
+        <v>21.93</v>
+      </c>
+      <c r="E264" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>12.53</v>
+      </c>
+      <c r="B265">
+        <v>24.65</v>
+      </c>
+      <c r="C265">
+        <v>12.53</v>
+      </c>
+      <c r="D265">
+        <v>21.93</v>
+      </c>
+      <c r="E265" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>13.24</v>
+      </c>
+      <c r="B266">
+        <v>24.65</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="12"/>
+        <v>13.24</v>
+      </c>
+      <c r="D266">
+        <v>21.93</v>
+      </c>
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>13.94</v>
+      </c>
+      <c r="B267">
+        <v>24.65</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="12"/>
+        <v>13.94</v>
+      </c>
+      <c r="D267">
+        <v>21.93</v>
+      </c>
+      <c r="E267" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>14.68</v>
+      </c>
+      <c r="B268">
+        <v>24.65</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="12"/>
+        <v>14.68</v>
+      </c>
+      <c r="D268">
+        <v>21.93</v>
+      </c>
+      <c r="E268" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>15.33</v>
+      </c>
+      <c r="B269">
+        <v>24.65</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="12"/>
+        <v>15.33</v>
+      </c>
+      <c r="D269">
+        <v>21.93</v>
+      </c>
+      <c r="E269" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>16.05</v>
+      </c>
+      <c r="B270">
+        <v>24.65</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="12"/>
+        <v>16.05</v>
+      </c>
+      <c r="D270">
+        <v>21.93</v>
+      </c>
+      <c r="E270" t="s">
+        <v>7</v>
+      </c>
+      <c r="F270">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="B271">
+        <v>24.65</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="12"/>
+        <v>16.850000000000001</v>
+      </c>
+      <c r="D271">
+        <v>21.93</v>
+      </c>
+      <c r="E271" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="B272">
+        <v>24.65</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="12"/>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="D272">
+        <v>21.93</v>
+      </c>
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="B273">
+        <v>21.93</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="12"/>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="D273">
+        <v>23.46</v>
+      </c>
+      <c r="E273" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="B274">
+        <v>23.46</v>
+      </c>
+      <c r="C274">
+        <v>27.79</v>
+      </c>
+      <c r="D274">
+        <v>23.46</v>
+      </c>
+      <c r="E274" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="B275">
+        <v>24.65</v>
+      </c>
+      <c r="C275">
+        <f t="shared" ref="C275:C280" si="13">A275</f>
+        <v>19.690000000000001</v>
+      </c>
+      <c r="D275">
+        <v>21.93</v>
+      </c>
+      <c r="E275" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>21.16</v>
+      </c>
+      <c r="B276">
+        <v>24.65</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="13"/>
+        <v>21.16</v>
+      </c>
+      <c r="D276">
+        <v>21.93</v>
+      </c>
+      <c r="E276" t="s">
+        <v>7</v>
+      </c>
+      <c r="F276">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>22.54</v>
+      </c>
+      <c r="B277">
+        <v>24.65</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="13"/>
+        <v>22.54</v>
+      </c>
+      <c r="D277">
+        <v>21.93</v>
+      </c>
+      <c r="E277" t="s">
+        <v>7</v>
+      </c>
+      <c r="F277">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>23.87</v>
+      </c>
+      <c r="B278">
+        <v>24.65</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="13"/>
+        <v>23.87</v>
+      </c>
+      <c r="D278">
+        <v>21.93</v>
+      </c>
+      <c r="E278" t="s">
+        <v>7</v>
+      </c>
+      <c r="F278">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>25.31</v>
+      </c>
+      <c r="B279">
+        <v>24.65</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="13"/>
+        <v>25.31</v>
+      </c>
+      <c r="D279">
+        <v>21.93</v>
+      </c>
+      <c r="E279" t="s">
+        <v>7</v>
+      </c>
+      <c r="F279">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>26.75</v>
+      </c>
+      <c r="B280">
+        <v>24.65</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="13"/>
+        <v>26.75</v>
+      </c>
+      <c r="D280">
+        <v>21.93</v>
+      </c>
+      <c r="E280" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>28.84</v>
+      </c>
+      <c r="B281">
+        <v>28</v>
+      </c>
+      <c r="C281">
+        <v>28.84</v>
+      </c>
+      <c r="D281">
+        <v>25.13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281">
+        <v>6</v>
+      </c>
+      <c r="G281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>28.84</v>
+      </c>
+      <c r="B282">
+        <v>28</v>
+      </c>
+      <c r="C282">
+        <v>51.64</v>
+      </c>
+      <c r="D282">
+        <v>28</v>
+      </c>
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>51.64</v>
+      </c>
+      <c r="B283">
+        <v>28</v>
+      </c>
+      <c r="C283">
+        <v>51.64</v>
+      </c>
+      <c r="D283">
+        <v>25.13</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>28.84</v>
+      </c>
+      <c r="B284">
+        <v>25.13</v>
+      </c>
+      <c r="C284">
+        <v>51.64</v>
+      </c>
+      <c r="D284">
+        <v>25.13</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>29.18</v>
+      </c>
+      <c r="B285">
+        <v>28</v>
+      </c>
+      <c r="C285">
+        <v>29.18</v>
+      </c>
+      <c r="D285">
+        <v>25.13</v>
+      </c>
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>29.6</v>
+      </c>
+      <c r="B286">
+        <v>28</v>
+      </c>
+      <c r="C286">
+        <v>29.6</v>
+      </c>
+      <c r="D286">
+        <v>25.13</v>
+      </c>
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+      <c r="F286">
+        <v>6</v>
+      </c>
+      <c r="G286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>30.33</v>
+      </c>
+      <c r="B287">
+        <v>28</v>
+      </c>
+      <c r="C287">
+        <v>30.33</v>
+      </c>
+      <c r="D287">
+        <v>25.13</v>
+      </c>
+      <c r="E287" t="s">
+        <v>7</v>
+      </c>
+      <c r="F287">
+        <v>6</v>
+      </c>
+      <c r="G287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>31.73</v>
+      </c>
+      <c r="B288">
+        <v>28</v>
+      </c>
+      <c r="C288">
+        <v>31.73</v>
+      </c>
+      <c r="D288">
+        <v>25.13</v>
+      </c>
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+      <c r="G288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>31.73</v>
+      </c>
+      <c r="B289">
+        <v>26.76</v>
+      </c>
+      <c r="C289">
+        <v>36.71</v>
+      </c>
+      <c r="D289">
+        <v>26.76</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+      <c r="G289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>32.43</v>
+      </c>
+      <c r="B290">
+        <v>28</v>
+      </c>
+      <c r="C290">
+        <v>32.43</v>
+      </c>
+      <c r="D290">
+        <v>25.13</v>
+      </c>
+      <c r="E290" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290">
+        <v>6</v>
+      </c>
+      <c r="G290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>33.14</v>
+      </c>
+      <c r="B291">
+        <v>28</v>
+      </c>
+      <c r="C291">
+        <v>33.14</v>
+      </c>
+      <c r="D291">
+        <v>25.13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291">
+        <v>6</v>
+      </c>
+      <c r="G291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="B292">
+        <v>28</v>
+      </c>
+      <c r="C292">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="D292">
+        <v>25.13</v>
+      </c>
+      <c r="E292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292">
+        <v>6</v>
+      </c>
+      <c r="G292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>34.53</v>
+      </c>
+      <c r="B293">
+        <v>28</v>
+      </c>
+      <c r="C293">
+        <v>34.53</v>
+      </c>
+      <c r="D293">
+        <v>25.13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293">
+        <v>6</v>
+      </c>
+      <c r="G293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="B294">
+        <v>28</v>
+      </c>
+      <c r="C294">
+        <f>A294</f>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="D294">
+        <v>25.13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>7</v>
+      </c>
+      <c r="F294">
+        <v>6</v>
+      </c>
+      <c r="G294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>35.97</v>
+      </c>
+      <c r="B295">
+        <v>28</v>
+      </c>
+      <c r="C295">
+        <f>A295</f>
+        <v>35.97</v>
+      </c>
+      <c r="D295">
+        <v>25.13</v>
+      </c>
+      <c r="E295" t="s">
+        <v>7</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+      <c r="G295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>36.1</v>
+      </c>
+      <c r="B296">
+        <v>28</v>
+      </c>
+      <c r="C296">
+        <f t="shared" ref="C296:C309" si="14">A296</f>
+        <v>36.1</v>
+      </c>
+      <c r="D296">
+        <v>26.76</v>
+      </c>
+      <c r="E296" t="s">
+        <v>7</v>
+      </c>
+      <c r="F296">
+        <v>6</v>
+      </c>
+      <c r="G296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>36.69</v>
+      </c>
+      <c r="B297">
+        <v>28</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="14"/>
+        <v>36.69</v>
+      </c>
+      <c r="D297">
+        <v>25.13</v>
+      </c>
+      <c r="E297" t="s">
+        <v>7</v>
+      </c>
+      <c r="F297">
+        <v>6</v>
+      </c>
+      <c r="G297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>36.69</v>
+      </c>
+      <c r="B298">
+        <v>26.8</v>
+      </c>
+      <c r="C298">
+        <v>36.94</v>
+      </c>
+      <c r="D298">
+        <v>26.8</v>
+      </c>
+      <c r="E298" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298">
+        <v>6</v>
+      </c>
+      <c r="G298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>36.94</v>
+      </c>
+      <c r="B299">
+        <v>26.8</v>
+      </c>
+      <c r="C299">
+        <f>A299</f>
+        <v>36.94</v>
+      </c>
+      <c r="D299">
+        <v>26.56</v>
+      </c>
+      <c r="E299" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299">
+        <v>6</v>
+      </c>
+      <c r="G299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>36.94</v>
+      </c>
+      <c r="B300">
+        <v>26.56</v>
+      </c>
+      <c r="C300">
+        <v>37.36</v>
+      </c>
+      <c r="D300">
+        <v>26.56</v>
+      </c>
+      <c r="E300" t="s">
+        <v>7</v>
+      </c>
+      <c r="F300">
+        <v>6</v>
+      </c>
+      <c r="G300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>37.36</v>
+      </c>
+      <c r="B301">
+        <v>28</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="14"/>
+        <v>37.36</v>
+      </c>
+      <c r="D301">
+        <v>26.56</v>
+      </c>
+      <c r="E301" t="s">
+        <v>7</v>
+      </c>
+      <c r="F301">
+        <v>6</v>
+      </c>
+      <c r="G301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>37.47</v>
+      </c>
+      <c r="B302">
+        <v>28</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="14"/>
+        <v>37.47</v>
+      </c>
+      <c r="D302">
+        <v>25.13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>7</v>
+      </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+      <c r="G302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>37.47</v>
+      </c>
+      <c r="B303">
+        <v>26.79</v>
+      </c>
+      <c r="C303">
+        <v>38.71</v>
+      </c>
+      <c r="D303">
+        <v>26.79</v>
+      </c>
+      <c r="E303" t="s">
+        <v>7</v>
+      </c>
+      <c r="F303">
+        <v>6</v>
+      </c>
+      <c r="G303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>38.71</v>
+      </c>
+      <c r="B304">
+        <v>28</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="14"/>
+        <v>38.71</v>
+      </c>
+      <c r="D304">
+        <v>26.79</v>
+      </c>
+      <c r="E304" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304">
+        <v>6</v>
+      </c>
+      <c r="G304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>38.1</v>
+      </c>
+      <c r="B305">
+        <v>28</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="14"/>
+        <v>38.1</v>
+      </c>
+      <c r="D305">
+        <v>25.13</v>
+      </c>
+      <c r="E305" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305">
+        <v>6</v>
+      </c>
+      <c r="G305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>38.82</v>
+      </c>
+      <c r="B306">
+        <v>28</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="14"/>
+        <v>38.82</v>
+      </c>
+      <c r="D306">
+        <v>25.13</v>
+      </c>
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306">
+        <v>6</v>
+      </c>
+      <c r="G306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>38.82</v>
+      </c>
+      <c r="B307">
+        <v>26.42</v>
+      </c>
+      <c r="C307">
+        <v>39.53</v>
+      </c>
+      <c r="D307">
+        <v>26.42</v>
+      </c>
+      <c r="E307" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307">
+        <v>6</v>
+      </c>
+      <c r="G307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>39.53</v>
+      </c>
+      <c r="B308">
+        <v>28</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="14"/>
+        <v>39.53</v>
+      </c>
+      <c r="D308">
+        <v>25.13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>7</v>
+      </c>
+      <c r="F308">
+        <v>6</v>
+      </c>
+      <c r="G308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>40.26</v>
+      </c>
+      <c r="B309">
+        <v>28</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="14"/>
+        <v>40.26</v>
+      </c>
+      <c r="D309">
+        <v>25.13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309">
+        <v>6</v>
+      </c>
+      <c r="G309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>39.53</v>
+      </c>
+      <c r="B310">
+        <v>26.02</v>
+      </c>
+      <c r="C310">
+        <v>40.01</v>
+      </c>
+      <c r="D310">
+        <v>26.02</v>
+      </c>
+      <c r="E310" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310">
+        <v>6</v>
+      </c>
+      <c r="G310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>40.01</v>
+      </c>
+      <c r="B311">
+        <v>26.02</v>
+      </c>
+      <c r="C311">
+        <v>40.01</v>
+      </c>
+      <c r="D311">
+        <v>26.38</v>
+      </c>
+      <c r="E311" t="s">
+        <v>7</v>
+      </c>
+      <c r="F311">
+        <v>6</v>
+      </c>
+      <c r="G311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>40.01</v>
+      </c>
+      <c r="B312">
+        <v>26.38</v>
+      </c>
+      <c r="C312">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D312">
+        <v>26.38</v>
+      </c>
+      <c r="E312" t="s">
+        <v>7</v>
+      </c>
+      <c r="F312">
+        <v>6</v>
+      </c>
+      <c r="G312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B313">
+        <v>28</v>
+      </c>
+      <c r="C313">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D313">
+        <v>26.38</v>
+      </c>
+      <c r="E313" t="s">
+        <v>7</v>
+      </c>
+      <c r="F313">
+        <v>6</v>
+      </c>
+      <c r="G313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>40.26</v>
+      </c>
+      <c r="B314">
+        <v>28</v>
+      </c>
+      <c r="C314">
+        <v>40.26</v>
+      </c>
+      <c r="D314">
+        <v>25.13</v>
+      </c>
+      <c r="E314" t="s">
+        <v>7</v>
+      </c>
+      <c r="F314">
+        <v>6</v>
+      </c>
+      <c r="G314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>40.89</v>
+      </c>
+      <c r="B315">
+        <v>28</v>
+      </c>
+      <c r="C315">
+        <v>40.89</v>
+      </c>
+      <c r="D315">
+        <v>25.13</v>
+      </c>
+      <c r="E315" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315">
+        <v>6</v>
+      </c>
+      <c r="G315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>40.89</v>
+      </c>
+      <c r="B316">
+        <v>26.77</v>
+      </c>
+      <c r="C316">
+        <v>41.5</v>
+      </c>
+      <c r="D316">
+        <v>26.77</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316">
+        <v>6</v>
+      </c>
+      <c r="G316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>41.5</v>
+      </c>
+      <c r="B317">
+        <v>28</v>
+      </c>
+      <c r="C317">
+        <v>41.5</v>
+      </c>
+      <c r="D317">
+        <v>26.77</v>
+      </c>
+      <c r="E317" t="s">
+        <v>7</v>
+      </c>
+      <c r="F317">
+        <v>6</v>
+      </c>
+      <c r="G317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>40.89</v>
+      </c>
+      <c r="B318">
+        <v>25.86</v>
+      </c>
+      <c r="C318">
+        <v>41.5</v>
+      </c>
+      <c r="D318">
+        <v>25.86</v>
+      </c>
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318">
+        <v>6</v>
+      </c>
+      <c r="G318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>41.5</v>
+      </c>
+      <c r="B319">
+        <v>25.86</v>
+      </c>
+      <c r="C319">
+        <v>41.5</v>
+      </c>
+      <c r="D319">
+        <v>25.13</v>
+      </c>
+      <c r="E319" t="s">
+        <v>7</v>
+      </c>
+      <c r="F319">
+        <v>6</v>
+      </c>
+      <c r="G319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>41.62</v>
+      </c>
+      <c r="B320">
+        <v>28</v>
+      </c>
+      <c r="C320">
+        <v>41.62</v>
+      </c>
+      <c r="D320">
+        <v>25.13</v>
+      </c>
+      <c r="E320" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320">
+        <v>6</v>
+      </c>
+      <c r="G320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>41.62</v>
+      </c>
+      <c r="B321">
+        <v>26.25</v>
+      </c>
+      <c r="C321">
+        <v>42.25</v>
+      </c>
+      <c r="D321">
+        <v>26.25</v>
+      </c>
+      <c r="E321" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321">
+        <v>6</v>
+      </c>
+      <c r="G321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>42.25</v>
+      </c>
+      <c r="B322">
+        <v>28</v>
+      </c>
+      <c r="C322">
+        <v>42.25</v>
+      </c>
+      <c r="D322">
+        <v>25.13</v>
+      </c>
+      <c r="E322" t="s">
+        <v>7</v>
+      </c>
+      <c r="F322">
+        <v>6</v>
+      </c>
+      <c r="G322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>42.25</v>
+      </c>
+      <c r="B323">
+        <v>26.5</v>
+      </c>
+      <c r="C323">
+        <v>43.68</v>
+      </c>
+      <c r="D323">
+        <v>26.5</v>
+      </c>
+      <c r="E323" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323">
+        <v>6</v>
+      </c>
+      <c r="G323" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>42.25</v>
+      </c>
+      <c r="B324">
+        <v>26.03</v>
+      </c>
+      <c r="C324">
+        <v>42.93</v>
+      </c>
+      <c r="D324">
+        <v>26.03</v>
+      </c>
+      <c r="E324" t="s">
+        <v>7</v>
+      </c>
+      <c r="F324">
+        <v>6</v>
+      </c>
+      <c r="G324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>42.93</v>
+      </c>
+      <c r="B325">
+        <v>26.03</v>
+      </c>
+      <c r="C325">
+        <v>42.93</v>
+      </c>
+      <c r="D325">
+        <v>25.13</v>
+      </c>
+      <c r="E325" t="s">
+        <v>7</v>
+      </c>
+      <c r="F325">
+        <v>6</v>
+      </c>
+      <c r="G325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>42.98</v>
+      </c>
+      <c r="B326">
+        <v>28</v>
+      </c>
+      <c r="C326">
+        <v>42.98</v>
+      </c>
+      <c r="D326">
+        <v>25.13</v>
+      </c>
+      <c r="E326" t="s">
+        <v>7</v>
+      </c>
+      <c r="F326">
+        <v>6</v>
+      </c>
+      <c r="G326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>43.66</v>
+      </c>
+      <c r="B327">
+        <v>28</v>
+      </c>
+      <c r="C327">
+        <v>43.66</v>
+      </c>
+      <c r="D327">
+        <v>25.13</v>
+      </c>
+      <c r="E327" t="s">
+        <v>7</v>
+      </c>
+      <c r="F327">
+        <v>6</v>
+      </c>
+      <c r="G327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>43.76</v>
+      </c>
+      <c r="B328">
+        <v>28</v>
+      </c>
+      <c r="C328">
+        <v>43.76</v>
+      </c>
+      <c r="D328">
+        <v>26.86</v>
+      </c>
+      <c r="E328" t="s">
+        <v>7</v>
+      </c>
+      <c r="F328">
+        <v>6</v>
+      </c>
+      <c r="G328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>43.76</v>
+      </c>
+      <c r="B329">
+        <v>26.86</v>
+      </c>
+      <c r="C329">
+        <v>44.43</v>
+      </c>
+      <c r="D329">
+        <v>26.86</v>
+      </c>
+      <c r="E329" t="s">
+        <v>7</v>
+      </c>
+      <c r="F329">
+        <v>6</v>
+      </c>
+      <c r="G329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>44.43</v>
+      </c>
+      <c r="B330">
+        <v>28</v>
+      </c>
+      <c r="C330">
+        <v>44.43</v>
+      </c>
+      <c r="D330">
+        <v>25.13</v>
+      </c>
+      <c r="E330" t="s">
+        <v>7</v>
+      </c>
+      <c r="F330">
+        <v>6</v>
+      </c>
+      <c r="G330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>45.09</v>
+      </c>
+      <c r="B331">
+        <v>28</v>
+      </c>
+      <c r="C331">
+        <v>45.09</v>
+      </c>
+      <c r="D331">
+        <v>25.13</v>
+      </c>
+      <c r="E331" t="s">
+        <v>7</v>
+      </c>
+      <c r="F331">
+        <v>6</v>
+      </c>
+      <c r="G331" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>44.43</v>
+      </c>
+      <c r="B332">
+        <v>25.71</v>
+      </c>
+      <c r="C332">
+        <v>45.09</v>
+      </c>
+      <c r="D332">
+        <v>25.71</v>
+      </c>
+      <c r="E332" t="s">
+        <v>7</v>
+      </c>
+      <c r="F332">
+        <v>6</v>
+      </c>
+      <c r="G332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>45.09</v>
+      </c>
+      <c r="B333">
+        <v>27.55</v>
+      </c>
+      <c r="C333">
+        <v>45.81</v>
+      </c>
+      <c r="D333">
+        <v>27.55</v>
+      </c>
+      <c r="E333" t="s">
+        <v>7</v>
+      </c>
+      <c r="F333">
+        <v>6</v>
+      </c>
+      <c r="G333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>45.09</v>
+      </c>
+      <c r="B334">
+        <v>26.56</v>
+      </c>
+      <c r="C334">
+        <v>45.26</v>
+      </c>
+      <c r="D334">
+        <v>26.56</v>
+      </c>
+      <c r="E334" t="s">
+        <v>7</v>
+      </c>
+      <c r="F334">
+        <v>6</v>
+      </c>
+      <c r="G334" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>45.26</v>
+      </c>
+      <c r="B335">
+        <v>26.56</v>
+      </c>
+      <c r="C335">
+        <v>45.26</v>
+      </c>
+      <c r="D335">
+        <v>25.95</v>
+      </c>
+      <c r="E335" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335">
+        <v>6</v>
+      </c>
+      <c r="G335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>45.09</v>
+      </c>
+      <c r="B336">
+        <v>25.95</v>
+      </c>
+      <c r="C336">
+        <v>45.26</v>
+      </c>
+      <c r="D336">
+        <v>25.95</v>
+      </c>
+      <c r="E336" t="s">
+        <v>7</v>
+      </c>
+      <c r="F336">
+        <v>6</v>
+      </c>
+      <c r="G336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>45.81</v>
+      </c>
+      <c r="B337">
+        <v>28</v>
+      </c>
+      <c r="C337">
+        <v>45.81</v>
+      </c>
+      <c r="D337">
+        <v>25.13</v>
+      </c>
+      <c r="E337" t="s">
+        <v>7</v>
+      </c>
+      <c r="F337">
+        <v>6</v>
+      </c>
+      <c r="G337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>46.41</v>
+      </c>
+      <c r="B338">
+        <v>26.61</v>
+      </c>
+      <c r="C338">
+        <v>46.41</v>
+      </c>
+      <c r="D338">
+        <v>25.13</v>
+      </c>
+      <c r="E338" t="s">
+        <v>7</v>
+      </c>
+      <c r="F338">
+        <v>6</v>
+      </c>
+      <c r="G338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>46.41</v>
+      </c>
+      <c r="B339">
+        <v>26.61</v>
+      </c>
+      <c r="C339">
+        <v>46.59</v>
+      </c>
+      <c r="D339">
+        <v>26.61</v>
+      </c>
+      <c r="E339" t="s">
+        <v>7</v>
+      </c>
+      <c r="F339">
+        <v>6</v>
+      </c>
+      <c r="G339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>46.59</v>
+      </c>
+      <c r="B340">
+        <v>28</v>
+      </c>
+      <c r="C340">
+        <v>46.59</v>
+      </c>
+      <c r="D340">
+        <v>25.13</v>
+      </c>
+      <c r="E340" t="s">
+        <v>7</v>
+      </c>
+      <c r="F340">
+        <v>6</v>
+      </c>
+      <c r="G340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>46.65</v>
+      </c>
+      <c r="B341">
+        <v>28</v>
+      </c>
+      <c r="C341">
+        <v>46.65</v>
+      </c>
+      <c r="D341">
+        <v>26.36</v>
+      </c>
+      <c r="E341" t="s">
+        <v>7</v>
+      </c>
+      <c r="F341">
+        <v>6</v>
+      </c>
+      <c r="G341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>46.65</v>
+      </c>
+      <c r="B342">
+        <v>26.36</v>
+      </c>
+      <c r="C342">
+        <v>47.28</v>
+      </c>
+      <c r="D342">
+        <v>26.36</v>
+      </c>
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342">
+        <v>6</v>
+      </c>
+      <c r="G342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>47.28</v>
+      </c>
+      <c r="B343">
+        <v>28</v>
+      </c>
+      <c r="C343">
+        <v>47.28</v>
+      </c>
+      <c r="D343">
+        <v>25.13</v>
+      </c>
+      <c r="E343" t="s">
+        <v>7</v>
+      </c>
+      <c r="F343">
+        <v>6</v>
+      </c>
+      <c r="G343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>47.28</v>
+      </c>
+      <c r="B344">
+        <v>25.46</v>
+      </c>
+      <c r="C344">
+        <v>49.41</v>
+      </c>
+      <c r="D344">
+        <v>25.46</v>
+      </c>
+      <c r="E344" t="s">
+        <v>7</v>
+      </c>
+      <c r="F344">
+        <v>6</v>
+      </c>
+      <c r="G344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>48.01</v>
+      </c>
+      <c r="B345">
+        <v>28</v>
+      </c>
+      <c r="C345">
+        <v>48.01</v>
+      </c>
+      <c r="D345">
+        <v>25.13</v>
+      </c>
+      <c r="E345" t="s">
+        <v>7</v>
+      </c>
+      <c r="F345">
+        <v>6</v>
+      </c>
+      <c r="G345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>48.71</v>
+      </c>
+      <c r="B346">
+        <v>28</v>
+      </c>
+      <c r="C346">
+        <v>48.71</v>
+      </c>
+      <c r="D346">
+        <v>25.13</v>
+      </c>
+      <c r="E346" t="s">
+        <v>7</v>
+      </c>
+      <c r="F346">
+        <v>6</v>
+      </c>
+      <c r="G346" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>49.41</v>
+      </c>
+      <c r="B347">
+        <v>28</v>
+      </c>
+      <c r="C347">
+        <v>49.41</v>
+      </c>
+      <c r="D347">
+        <v>25.13</v>
+      </c>
+      <c r="E347" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347">
+        <v>6</v>
+      </c>
+      <c r="G347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>49.57</v>
+      </c>
+      <c r="B348">
+        <v>28</v>
+      </c>
+      <c r="C348">
+        <v>49.57</v>
+      </c>
+      <c r="D348">
+        <v>25.13</v>
+      </c>
+      <c r="E348" t="s">
+        <v>7</v>
+      </c>
+      <c r="F348">
+        <v>6</v>
+      </c>
+      <c r="G348" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>50.11</v>
+      </c>
+      <c r="B349">
+        <v>28</v>
+      </c>
+      <c r="C349">
+        <v>50.11</v>
+      </c>
+      <c r="D349">
+        <v>25.13</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349">
+        <v>6</v>
+      </c>
+      <c r="G349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>50.85</v>
+      </c>
+      <c r="B350">
+        <v>28</v>
+      </c>
+      <c r="C350">
+        <v>50.85</v>
+      </c>
+      <c r="D350">
+        <v>25.13</v>
+      </c>
+      <c r="E350" t="s">
+        <v>7</v>
+      </c>
+      <c r="F350">
+        <v>6</v>
+      </c>
+      <c r="G350" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>28.84</v>
+      </c>
+      <c r="B351">
+        <v>24.65</v>
+      </c>
+      <c r="C351">
+        <v>51.64</v>
+      </c>
+      <c r="D351">
+        <v>24.65</v>
+      </c>
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
+      <c r="F351">
+        <v>6.1</v>
+      </c>
+      <c r="G351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>28.84</v>
+      </c>
+      <c r="B352">
+        <v>21.93</v>
+      </c>
+      <c r="C352">
+        <v>51.64</v>
+      </c>
+      <c r="D352">
+        <v>21.93</v>
+      </c>
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+      <c r="F352">
+        <v>6.1</v>
+      </c>
+      <c r="G352" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>28.84</v>
+      </c>
+      <c r="B353">
+        <v>24.65</v>
+      </c>
+      <c r="C353">
+        <v>28.84</v>
+      </c>
+      <c r="D353">
+        <v>21.93</v>
+      </c>
+      <c r="E353" t="s">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>6.1</v>
+      </c>
+      <c r="G353" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>51.64</v>
+      </c>
+      <c r="B354">
+        <v>24.65</v>
+      </c>
+      <c r="C354">
+        <v>51.64</v>
+      </c>
+      <c r="D354">
+        <v>21.93</v>
+      </c>
+      <c r="E354" t="s">
+        <v>6</v>
+      </c>
+      <c r="F354">
+        <v>6.1</v>
+      </c>
+      <c r="G354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>29.63</v>
+      </c>
+      <c r="B355">
+        <v>24.65</v>
+      </c>
+      <c r="C355">
+        <v>29.63</v>
+      </c>
+      <c r="D355">
+        <v>21.93</v>
+      </c>
+      <c r="E355" t="s">
+        <v>7</v>
+      </c>
+      <c r="F355">
+        <v>6.1</v>
+      </c>
+      <c r="G355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>30.1</v>
+      </c>
+      <c r="B356">
+        <v>24.65</v>
+      </c>
+      <c r="C356">
+        <v>30.1</v>
+      </c>
+      <c r="D356">
+        <v>21.93</v>
+      </c>
+      <c r="E356" t="s">
+        <v>7</v>
+      </c>
+      <c r="F356">
+        <v>6.1</v>
+      </c>
+      <c r="G356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>29.52</v>
+      </c>
+      <c r="B357">
+        <v>23.38</v>
+      </c>
+      <c r="C357">
+        <v>29.52</v>
+      </c>
+      <c r="D357">
+        <v>22.08</v>
+      </c>
+      <c r="E357" t="s">
+        <v>7</v>
+      </c>
+      <c r="F357">
+        <v>6.1</v>
+      </c>
+      <c r="G357" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>29.38</v>
+      </c>
+      <c r="B358">
+        <v>22.08</v>
+      </c>
+      <c r="C358">
+        <v>29.38</v>
+      </c>
+      <c r="D358">
+        <v>21.93</v>
+      </c>
+      <c r="E358" t="s">
+        <v>7</v>
+      </c>
+      <c r="F358">
+        <v>6.1</v>
+      </c>
+      <c r="G358" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>28.84</v>
+      </c>
+      <c r="B359">
+        <v>22.08</v>
+      </c>
+      <c r="C359">
+        <v>31.77</v>
+      </c>
+      <c r="D359">
+        <v>22.08</v>
+      </c>
+      <c r="E359" t="s">
+        <v>7</v>
+      </c>
+      <c r="F359">
+        <v>6.1</v>
+      </c>
+      <c r="G359" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>28.84</v>
+      </c>
+      <c r="B360">
+        <v>24.09</v>
+      </c>
+      <c r="C360">
+        <v>30.1</v>
+      </c>
+      <c r="D360">
+        <v>24.09</v>
+      </c>
+      <c r="E360" t="s">
+        <v>7</v>
+      </c>
+      <c r="F360">
+        <v>6.1</v>
+      </c>
+      <c r="G360" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>28.84</v>
+      </c>
+      <c r="B361">
+        <v>23.38</v>
+      </c>
+      <c r="C361">
+        <v>31.77</v>
+      </c>
+      <c r="D361">
+        <v>23.38</v>
+      </c>
+      <c r="E361" t="s">
+        <v>7</v>
+      </c>
+      <c r="F361">
+        <v>6.1</v>
+      </c>
+      <c r="G361" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C20 C28 B32 B37 C40 B41 C76 B77 B70" formula="1"/>
+    <ignoredError sqref="C20 C28 B32 B37 C40 B41 C75 B76 B70" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>